--- a/regional_simulator/household_consumption_mock_data.xlsx
+++ b/regional_simulator/household_consumption_mock_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\Fontys\S6\mock data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\Fontys\S6\Energy-Grid-Backend\regional_simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F035B34C-0EE4-41B2-95DA-77B5427C75FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF7570-7E78-44AF-B3BF-ED9C850CAB95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>hour</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>december</t>
+  </si>
+  <si>
+    <t>total_month</t>
+  </si>
+  <si>
+    <t>percentage_of_year</t>
+  </si>
+  <si>
+    <t>total_week</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N674"/>
+  <dimension ref="A1:N676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
-      <selection activeCell="C674" sqref="C674"/>
+    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
+      <selection activeCell="B676" sqref="B676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30047,6 +30056,9 @@
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B674" t="s">
+        <v>15</v>
+      </c>
       <c r="C674">
         <f>SUM(C2:C673)</f>
         <v>2429.6800000000007</v>
@@ -30096,7 +30108,116 @@
         <v>2286.4190999999983</v>
       </c>
     </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B675" t="s">
+        <v>13</v>
+      </c>
+      <c r="C675">
+        <f>C674*(4+(3/7))</f>
+        <v>10760.011428571432</v>
+      </c>
+      <c r="D675">
+        <f>D674*(4)</f>
+        <v>9145.676399999993</v>
+      </c>
+      <c r="E675">
+        <f>E674*(4+(3/7))</f>
+        <v>9491.0614142857139</v>
+      </c>
+      <c r="F675">
+        <f>F674*(4+(2/7))</f>
+        <v>8570.7437142857198</v>
+      </c>
+      <c r="G675">
+        <f>G674*(4+(3/7))</f>
+        <v>8221.9940428571372</v>
+      </c>
+      <c r="H675">
+        <f>H674*(4+(2/7))</f>
+        <v>7342.7297142857142</v>
+      </c>
+      <c r="I675">
+        <f>I674*(4+(3/7))</f>
+        <v>6952.8571428571349</v>
+      </c>
+      <c r="J675">
+        <f>J674*(4+(3/7))</f>
+        <v>7587.4873714285714</v>
+      </c>
+      <c r="K675">
+        <f>K674*(4+(2/7))</f>
+        <v>7956.7684285714222</v>
+      </c>
+      <c r="L675">
+        <f>L674*(4+(3/7))</f>
+        <v>8856.4351714285767</v>
+      </c>
+      <c r="M675">
+        <f>M674*(4+(2/7))</f>
+        <v>9184.8981428571424</v>
+      </c>
+      <c r="N675">
+        <f>N674*(4+(3/7))</f>
+        <v>10125.570299999992</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B676" t="s">
+        <v>14</v>
+      </c>
+      <c r="C676">
+        <f>C675/(SUM($C$675:$N$675))</f>
+        <v>0.10326679852756168</v>
+      </c>
+      <c r="D676">
+        <f t="shared" ref="D676:N676" si="1">D675/(SUM($C$675:$N$675))</f>
+        <v>8.7773579839260957E-2</v>
+      </c>
+      <c r="E676">
+        <f t="shared" si="1"/>
+        <v>9.10883351182354E-2</v>
+      </c>
+      <c r="F676">
+        <f t="shared" si="1"/>
+        <v>8.2255792221962082E-2</v>
+      </c>
+      <c r="G676">
+        <f t="shared" si="1"/>
+        <v>7.8908745400028527E-2</v>
+      </c>
+      <c r="H676">
+        <f t="shared" si="1"/>
+        <v>7.0470203036592391E-2</v>
+      </c>
+      <c r="I676">
+        <f t="shared" si="1"/>
+        <v>6.6728488396937707E-2</v>
+      </c>
+      <c r="J676">
+        <f t="shared" si="1"/>
+        <v>7.2819209804478813E-2</v>
+      </c>
+      <c r="K676">
+        <f t="shared" si="1"/>
+        <v>7.6363302000027597E-2</v>
+      </c>
+      <c r="L676">
+        <f t="shared" si="1"/>
+        <v>8.499765196269414E-2</v>
+      </c>
+      <c r="M676">
+        <f t="shared" si="1"/>
+        <v>8.8150001727324581E-2</v>
+      </c>
+      <c r="N676">
+        <f t="shared" si="1"/>
+        <v>9.7177891964896054E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="D675 F675:G675 M675 K675" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>